--- a/RSME RESULT.xlsx
+++ b/RSME RESULT.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="87">
   <si>
     <t>Linear Regression RMSE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,11 +46,195 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>2019-12-30 Close</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거래가격 1,000,000 이상 대형주</t>
+  </si>
+  <si>
+    <t>거래가격 1,000,000 이상 대형주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거래가격 1,000,000 이상 대형주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거래가격 1,000 이하 소형주</t>
+  </si>
+  <si>
+    <t>거래가격 1,000 이하 소형주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울식품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이스트아시아홈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KR모터스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KOSPI 시가총액 기준 TOP 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KOSPI 시가총액 기준 TOP 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KOSPI 시가총액 기준 TOP 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KOSDAQ 시가총액 기준 TOP 5</t>
+  </si>
+  <si>
+    <t>KOSDAQ 시가총액 기준 TOP 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KOSDAQ 시가총액 기준 TOP 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KOSDAQ 시가총액 기준 TOP 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오리엔트바이오</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>씨아이테크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KOSPI 시가총액 기준 TOP 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KOSPI 시가총액 기준 BOTTOM 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KOSPI 시가총액 기준 BOTTOM 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KOSDAQ 시가총액 기준 BOTTOM 5</t>
+  </si>
+  <si>
+    <t>KOSDAQ 시가총액 기준 BOTTOM 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>태광산업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영풍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고려아연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남양유업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>롯데푸드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대호피앤씨우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소프트센우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미래에셋대우스팩2호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>셀트리온헬스케어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에이치엘비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CJ ENM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스튜디오드래곤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동양3우B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KODEX운송</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동양2우B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIGER 금속선물(H)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼성전자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>SK하이닉스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>경동인베스트</t>
+    <t>삼성전자우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAVER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼성바이오로직</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>005930</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -58,39 +242,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>012320</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>023450</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>동남합성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019-12-30 Close</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>001380</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SG충방</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>005930</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>삼성전자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CJ ENM</t>
+    <t>2324 종목 평균</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 평균</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>005935</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>035420</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>207940</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140710</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>001529</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>139310</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>001527</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유유제약2우B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000227</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>091990</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>028300</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -98,47 +298,75 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>시가총액 기준 TOP 5</t>
-  </si>
-  <si>
-    <t>시가총액 기준 TOP 5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시가총액 기준 TOP 5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시가총액 기준 BOTTOM 5</t>
-  </si>
-  <si>
-    <t>시가총액 기준 BOTTOM 5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시가총액 기준 BOTTOM 5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>거래가격 1,000,000 이상 대형주</t>
-  </si>
-  <si>
-    <t>거래가격 1,000,000 이상 대형주</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>거래가격 1,000,000 이상 대형주</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>거래가격 1,000 이하 소형주</t>
-  </si>
-  <si>
-    <t>거래가격 1,000 이하 소형주</t>
+    <t>펄어비스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>263750</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>253450</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>149940</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거래중지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거래중지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">거래중지 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>021045</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>032685</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>310200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IBKS제12호스팩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>335870</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>003240</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 없음</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -146,11 +374,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
-    <numFmt numFmtId="183" formatCode="0.0000"/>
-    <numFmt numFmtId="184" formatCode="&quot;₩&quot;#,##0_);[Red]\(&quot;₩&quot;#,##0\)"/>
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="0.0000"/>
+    <numFmt numFmtId="177" formatCode="&quot;₩&quot;#,##0_);[Red]\(&quot;₩&quot;#,##0\)"/>
+    <numFmt numFmtId="179" formatCode="&quot;₩&quot;#,##0.00_);[Red]\(&quot;₩&quot;#,##0.00\)"/>
+    <numFmt numFmtId="191" formatCode="0.0000_);[Red]\(0.0000\)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,14 +407,39 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
-      <scheme val="major"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -194,6 +449,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -222,41 +495,99 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="191" fontId="0" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="191" fontId="0" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="191" fontId="4" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="191" fontId="6" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="백분율" xfId="1" builtinId="5"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -303,13 +634,10 @@
           <a:pPr>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
+              <a:latin typeface="Arial Unicode MS" panose="020B0604020202020204" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="Arial Unicode MS" panose="020B0604020202020204" pitchFamily="50" charset="-127"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
@@ -363,53 +691,173 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$4:$C$33</c:f>
+              <c:f>Sheet1!$C$4:$C$34</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
+                  <c:v>삼성전자</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>SK하이닉스</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>경동인베스트</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>동남합성</c:v>
+                  <c:v>삼성전자우</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>SG충방</c:v>
+                  <c:v>NAVER</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>삼성전자</c:v>
+                  <c:v>삼성바이오로직</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>KODEX운송</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>동양3우B</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>동양2우B</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>TIGER 금속선물(H)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>유유제약2우B</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>셀트리온헬스케어</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>에이치엘비</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>CJ ENM</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>펄어비스</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>스튜디오드래곤</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>모다</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>대호피앤씨우</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>소프트센우</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>미래에셋대우스팩2호</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>IBKS제12호스팩</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>태광산업</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>영풍</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>고려아연</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>남양유업</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>롯데푸드</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>서울식품</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>이스트아시아홈</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>KR모터스</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>오리엔트바이오</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>씨아이테크</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>전체 평균</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$4:$F$33</c:f>
+              <c:f>Sheet1!$F$4:$F$34</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>7.0643115772125703E-2</c:v>
+                  <c:v>7.9750931566099401E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.5955131575871703E-2</c:v>
+                  <c:v>7.0643350993542797E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.8865394997281004E-2</c:v>
+                  <c:v>8.2324091023444707E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.8680636802208497E-2</c:v>
+                  <c:v>6.7527408999172395E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.9759670295170199E-2</c:v>
+                  <c:v>5.73736451069113E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.3330469425223199E-2</c:v>
+                  <c:v>6.7528913020673001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.5617800618234204E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.9872973115910402E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.8547933330430494E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.0582056959368797E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.1801842362457803E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.9795234956609503E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.3328419232471201E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.9008691826325394E-2</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.0000_);[Red]\(0.0000\)">
+                  <c:v>8.2627137639795095E-2</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.0000_);[Red]\(0.0000\)">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0.0000_);[Red]\(0.0000\)">
+                  <c:v>6.9615369956342196E-2</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="0.0000_);[Red]\(0.0000\)">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="0.0000_);[Red]\(0.0000\)">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0.0000_);[Red]\(0.0000\)">
+                  <c:v>6.2530280592267604E-2</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="0.0000">
+                  <c:v>6.5665529257868796E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -459,7 +907,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -503,7 +951,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -611,12 +1059,9 @@
           <a:pPr>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Arial Unicode MS" panose="020B0604020202020204" pitchFamily="50" charset="-127"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
@@ -671,53 +1116,173 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$4:$C$33</c:f>
+              <c:f>Sheet1!$C$4:$C$34</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
+                  <c:v>삼성전자</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>SK하이닉스</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>경동인베스트</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>동남합성</c:v>
+                  <c:v>삼성전자우</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>SG충방</c:v>
+                  <c:v>NAVER</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>삼성전자</c:v>
+                  <c:v>삼성바이오로직</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>KODEX운송</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>동양3우B</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>동양2우B</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>TIGER 금속선물(H)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>유유제약2우B</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>셀트리온헬스케어</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>에이치엘비</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>CJ ENM</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>펄어비스</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>스튜디오드래곤</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>모다</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>대호피앤씨우</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>소프트센우</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>미래에셋대우스팩2호</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>IBKS제12호스팩</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>태광산업</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>영풍</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>고려아연</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>남양유업</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>롯데푸드</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>서울식품</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>이스트아시아홈</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>KR모터스</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>오리엔트바이오</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>씨아이테크</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>전체 평균</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$4:$E$33</c:f>
+              <c:f>Sheet1!$E$4:$E$34</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>0.90329300702314297</c:v>
+                  <c:v>0.856046370298571</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.95182035999627501</c:v>
+                  <c:v>0.90329236300868898</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.82135443847079304</c:v>
+                  <c:v>0.84619761656148196</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.84259322113608803</c:v>
+                  <c:v>0.91301095617428196</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.85601482105731896</c:v>
+                  <c:v>0.92751049648241402</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.87599331762378296</c:v>
+                  <c:v>0.88525573386599399</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.76981595405104897</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.60409224815275098</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.92526861628059798</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.75599389195882005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.90387154064558295</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.93062679336223797</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.87600025155041295</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.84743522443973496</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.0000_);[Red]\(0.0000\)">
+                  <c:v>0.88378828343901095</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.0000_);[Red]\(0.0000\)">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0.0000_);[Red]\(0.0000\)">
+                  <c:v>0.85012420000472699</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="0.0000_);[Red]\(0.0000\)">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="0.0000_);[Red]\(0.0000\)">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0.0000_);[Red]\(0.0000\)">
+                  <c:v>0.92774895886003095</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="0.0000">
+                  <c:v>0.92752347417227199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -767,7 +1332,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -811,7 +1376,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1979,15 +2544,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:colOff>123824</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>28576</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>128586</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2009,15 +2574,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
+      <xdr:colOff>180974</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:rowOff>157161</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>38101</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2302,398 +2867,580 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="8">
-        <v>94100</v>
-      </c>
-      <c r="E4" s="6">
-        <v>0.90329300702314297</v>
-      </c>
-      <c r="F4" s="6">
-        <v>7.0643115772125703E-2</v>
+      <c r="A4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="15">
+        <v>55800</v>
+      </c>
+      <c r="E4" s="19">
+        <v>0.856046370298571</v>
+      </c>
+      <c r="F4" s="19">
+        <v>7.9750931566099401E-2</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="8">
-        <v>36650</v>
-      </c>
-      <c r="E5" s="6">
-        <v>0.95182035999627501</v>
-      </c>
-      <c r="F5" s="7">
-        <v>5.5955131575871703E-2</v>
+      <c r="A5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="15">
+        <v>94100</v>
+      </c>
+      <c r="E5" s="19">
+        <v>0.90329236300868898</v>
+      </c>
+      <c r="F5" s="19">
+        <v>7.0643350993542797E-2</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="8">
-        <v>24850</v>
-      </c>
-      <c r="E6" s="6">
-        <v>0.82135443847079304</v>
-      </c>
-      <c r="F6" s="6">
-        <v>6.8865394997281004E-2</v>
+      <c r="A6" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="15">
+        <v>45400</v>
+      </c>
+      <c r="E6" s="19">
+        <v>0.84619761656148196</v>
+      </c>
+      <c r="F6" s="19">
+        <v>8.2324091023444707E-2</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="8">
-        <v>1725</v>
-      </c>
-      <c r="E7" s="6">
-        <v>0.84259322113608803</v>
-      </c>
-      <c r="F7" s="6">
-        <v>6.8680636802208497E-2</v>
+      <c r="A7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="15">
+        <v>186500</v>
+      </c>
+      <c r="E7" s="19">
+        <v>0.91301095617428196</v>
+      </c>
+      <c r="F7" s="19">
+        <v>6.7527408999172395E-2</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="8">
-        <v>55800</v>
-      </c>
-      <c r="E8" s="6">
-        <v>0.85601482105731896</v>
-      </c>
-      <c r="F8" s="6">
-        <v>7.9759670295170199E-2</v>
+      <c r="A8" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="15">
+        <v>433000</v>
+      </c>
+      <c r="E8" s="19">
+        <v>0.92751049648241402</v>
+      </c>
+      <c r="F8" s="19">
+        <v>5.73736451069113E-2</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="8">
-        <v>159600</v>
-      </c>
-      <c r="E9" s="6">
-        <v>0.87599331762378296</v>
-      </c>
-      <c r="F9" s="6">
-        <v>7.3330469425223199E-2</v>
+      <c r="A9" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="15">
+        <v>2988.63</v>
+      </c>
+      <c r="E9" s="19">
+        <v>0.88525573386599399</v>
+      </c>
+      <c r="F9" s="19">
+        <v>6.7528913020673001E-2</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
+      <c r="A10" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="15">
+        <v>28450</v>
+      </c>
+      <c r="E10" s="19">
+        <v>0.76981595405104897</v>
+      </c>
+      <c r="F10" s="19">
+        <v>6.5617800618234204E-2</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
+      <c r="A11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" s="19">
+        <v>0.60409224815275098</v>
+      </c>
+      <c r="F11" s="19">
+        <v>5.9872973115910402E-2</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
+      <c r="A12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="15"/>
+      <c r="E12" s="19">
+        <v>0.92526861628059798</v>
+      </c>
+      <c r="F12" s="19">
+        <v>6.8547933330430494E-2</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
+      <c r="A13" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="15"/>
+      <c r="E13" s="19">
+        <v>0.75599389195882005</v>
+      </c>
+      <c r="F13" s="19">
+        <v>7.0582056959368797E-2</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
+      <c r="A14" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="16"/>
+      <c r="E14" s="20">
+        <v>0.90387154064558295</v>
+      </c>
+      <c r="F14" s="20">
+        <v>6.1801842362457803E-2</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
+      <c r="A15" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="16"/>
+      <c r="E15" s="20">
+        <v>0.93062679336223797</v>
+      </c>
+      <c r="F15" s="20">
+        <v>5.9795234956609503E-2</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5" t="s">
+      <c r="A16" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
+      <c r="C16" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="16"/>
+      <c r="E16" s="20">
+        <v>0.87600025155041295</v>
+      </c>
+      <c r="F16" s="20">
+        <v>7.3328419232471201E-2</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
+      <c r="A17" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="16"/>
+      <c r="E17" s="20">
+        <v>0.84743522443973496</v>
+      </c>
+      <c r="F17" s="20">
+        <v>6.9008691826325394E-2</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
+      <c r="A18" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="16"/>
+      <c r="E18" s="21">
+        <v>0.88378828343901095</v>
+      </c>
+      <c r="F18" s="21">
+        <v>8.2627137639795095E-2</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
+      <c r="A19" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="F19" s="25" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
+      <c r="A20" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="16"/>
+      <c r="E20" s="21">
+        <v>0.85012420000472699</v>
+      </c>
+      <c r="F20" s="21">
+        <v>6.9615369956342196E-2</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
+      <c r="A21" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="16"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
+      <c r="A22" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="F22" s="25" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
+      <c r="A23" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="F23" s="25" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
+      <c r="A24" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="17"/>
+      <c r="E24" s="22">
+        <v>0.92774895886003095</v>
+      </c>
+      <c r="F24" s="22">
+        <v>6.2530280592267604E-2</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
+      <c r="A25" s="9"/>
+      <c r="B25" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="17"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
+      <c r="A26" s="9"/>
+      <c r="B26" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="17"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
+      <c r="A27" s="9"/>
+      <c r="B27" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="17"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
+      <c r="A28" s="9"/>
+      <c r="B28" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="17"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
+      <c r="A29" s="9"/>
+      <c r="B29" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="17"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
+      <c r="A30" s="9"/>
+      <c r="B30" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="17"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
+      <c r="A31" s="9"/>
+      <c r="B31" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="17"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
+      <c r="A32" s="9"/>
+      <c r="B32" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" s="17"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
+      <c r="A33" s="9"/>
+      <c r="B33" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" s="17"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" s="14">
+        <v>0.92752347417227199</v>
+      </c>
+      <c r="F34" s="14">
+        <v>6.5665529257868796E-2</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/RSME RESULT.xlsx
+++ b/RSME RESULT.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="99">
   <si>
     <t>Linear Regression RMSE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -84,10 +84,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이스트아시아홈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>KR모터스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -318,55 +314,107 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve">거래중지 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>021045</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>032685</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>310200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IBKS제12호스팩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>335870</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>003240</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000670</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010130</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>003920</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002270</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>004410</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이스트아시아홀딩스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>거래중지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>거래중지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거래중지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">거래중지 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>021045</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>032685</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>310200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IBKS제12호스팩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>335870</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터 없음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>003240</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터 없음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터 없음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터 없음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터 없음</t>
+    <t>900110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000040</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002360</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>004920</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -374,11 +422,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="0.0000"/>
+  <numFmts count="3">
     <numFmt numFmtId="177" formatCode="&quot;₩&quot;#,##0_);[Red]\(&quot;₩&quot;#,##0\)"/>
-    <numFmt numFmtId="179" formatCode="&quot;₩&quot;#,##0.00_);[Red]\(&quot;₩&quot;#,##0.00\)"/>
-    <numFmt numFmtId="191" formatCode="0.0000_);[Red]\(0.0000\)"/>
+    <numFmt numFmtId="178" formatCode="&quot;₩&quot;#,##0.00_);[Red]\(&quot;₩&quot;#,##0.00\)"/>
+    <numFmt numFmtId="179" formatCode="0.0000_);[Red]\(0.0000\)"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -503,7 +550,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -546,43 +593,46 @@
     <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="179" fontId="0" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="178" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="179" fontId="4" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="191" fontId="0" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="191" fontId="0" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="191" fontId="4" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="191" fontId="6" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="6" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -773,7 +823,7 @@
                   <c:v>서울식품</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>이스트아시아홈</c:v>
+                  <c:v>이스트아시아홀딩스</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>KR모터스</c:v>
@@ -794,7 +844,7 @@
             <c:numRef>
               <c:f>Sheet1!$F$4:$F$34</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
+                <c:formatCode>0.0000_);[Red]\(0.0000\)</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>7.9750931566099401E-2</c:v>
@@ -838,25 +888,55 @@
                 <c:pt idx="13">
                   <c:v>6.9008691826325394E-2</c:v>
                 </c:pt>
-                <c:pt idx="14" formatCode="0.0000_);[Red]\(0.0000\)">
+                <c:pt idx="14">
                   <c:v>8.2627137639795095E-2</c:v>
                 </c:pt>
-                <c:pt idx="15" formatCode="0.0000_);[Red]\(0.0000\)">
+                <c:pt idx="15">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="16" formatCode="0.0000_);[Red]\(0.0000\)">
+                <c:pt idx="16">
                   <c:v>6.9615369956342196E-2</c:v>
                 </c:pt>
-                <c:pt idx="18" formatCode="0.0000_);[Red]\(0.0000\)">
+                <c:pt idx="17">
+                  <c:v>5.9603083413124897E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="19" formatCode="0.0000_);[Red]\(0.0000\)">
+                <c:pt idx="19">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="20" formatCode="0.0000_);[Red]\(0.0000\)">
+                <c:pt idx="20">
                   <c:v>6.2530280592267604E-2</c:v>
                 </c:pt>
-                <c:pt idx="30" formatCode="0.0000">
+                <c:pt idx="21">
+                  <c:v>4.3805652162252698E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.5235728156654894E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.6055623845230297E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.8687677886903501E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.9207196628522201E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.6526597751429697E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6.3877881823624E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.8687521084626902E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>6.5665529257868796E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -907,7 +987,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -951,7 +1031,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0000_);[Red]\(0.0000\)" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1198,7 +1278,7 @@
                   <c:v>서울식품</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>이스트아시아홈</c:v>
+                  <c:v>이스트아시아홀딩스</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>KR모터스</c:v>
@@ -1219,7 +1299,7 @@
             <c:numRef>
               <c:f>Sheet1!$E$4:$E$34</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
+                <c:formatCode>0.0000_);[Red]\(0.0000\)</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0.856046370298571</c:v>
@@ -1263,25 +1343,55 @@
                 <c:pt idx="13">
                   <c:v>0.84743522443973496</c:v>
                 </c:pt>
-                <c:pt idx="14" formatCode="0.0000_);[Red]\(0.0000\)">
+                <c:pt idx="14">
                   <c:v>0.88378828343901095</c:v>
                 </c:pt>
-                <c:pt idx="15" formatCode="0.0000_);[Red]\(0.0000\)">
+                <c:pt idx="15">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="16" formatCode="0.0000_);[Red]\(0.0000\)">
+                <c:pt idx="16">
                   <c:v>0.85012420000472699</c:v>
                 </c:pt>
-                <c:pt idx="18" formatCode="0.0000_);[Red]\(0.0000\)">
+                <c:pt idx="17">
+                  <c:v>0.53149497223918096</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="19" formatCode="0.0000_);[Red]\(0.0000\)">
+                <c:pt idx="19">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="20" formatCode="0.0000_);[Red]\(0.0000\)">
+                <c:pt idx="20">
                   <c:v>0.92774895886003095</c:v>
                 </c:pt>
-                <c:pt idx="30" formatCode="0.0000">
+                <c:pt idx="21">
+                  <c:v>0.96954571990558502</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.83894335203821901</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.96118165705866498</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.95320488958022298</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.89057127832000305</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.97360540097488302</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.916304460193758</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.91890329203438603</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>0.92752347417227199</c:v>
                 </c:pt>
               </c:numCache>
@@ -1332,7 +1442,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -1376,7 +1486,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0000_);[Red]\(0.0000\)" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2543,16 +2653,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>128586</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2581,8 +2691,8 @@
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2869,8 +2979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="AI13" sqref="AI13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2883,22 +2993,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
@@ -2922,523 +3032,621 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="15">
+        <v>47</v>
+      </c>
+      <c r="D4" s="21">
         <v>55800</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="23">
         <v>0.856046370298571</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4" s="23">
         <v>7.9750931566099401E-2</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="15">
+        <v>48</v>
+      </c>
+      <c r="D5" s="21">
         <v>94100</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="23">
         <v>0.90329236300868898</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="23">
         <v>7.0643350993542797E-2</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="15">
+        <v>49</v>
+      </c>
+      <c r="D6" s="21">
         <v>45400</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="23">
         <v>0.84619761656148196</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="23">
         <v>8.2324091023444707E-2</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" s="15">
+        <v>50</v>
+      </c>
+      <c r="D7" s="21">
         <v>186500</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="23">
         <v>0.91301095617428196</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="23">
         <v>6.7527408999172395E-2</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" s="15">
+        <v>51</v>
+      </c>
+      <c r="D8" s="21">
         <v>433000</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="23">
         <v>0.92751049648241402</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="23">
         <v>5.73736451069113E-2</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="15">
+        <v>44</v>
+      </c>
+      <c r="D9" s="21">
         <v>2988.63</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="23">
         <v>0.88525573386599399</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="23">
         <v>6.7528913020673001E-2</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="15">
+        <v>43</v>
+      </c>
+      <c r="D10" s="21">
         <v>28450</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="23">
         <v>0.76981595405104897</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="23">
         <v>6.5617800618234204E-2</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="19">
+        <v>45</v>
+      </c>
+      <c r="D11" s="21">
+        <v>9360</v>
+      </c>
+      <c r="E11" s="23">
         <v>0.60409224815275098</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F11" s="23">
         <v>5.9872973115910402E-2</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="19">
+        <v>46</v>
+      </c>
+      <c r="D12" s="21">
+        <v>5030</v>
+      </c>
+      <c r="E12" s="23">
         <v>0.92526861628059798</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="23">
         <v>6.8547933330430494E-2</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="19">
+        <v>63</v>
+      </c>
+      <c r="D13" s="21">
+        <v>18800</v>
+      </c>
+      <c r="E13" s="23">
         <v>0.75599389195882005</v>
       </c>
-      <c r="F13" s="19">
+      <c r="F13" s="23">
         <v>7.0582056959368797E-2</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="20">
+        <v>39</v>
+      </c>
+      <c r="D14" s="22">
+        <v>53000</v>
+      </c>
+      <c r="E14" s="14">
         <v>0.90387154064558295</v>
       </c>
-      <c r="F14" s="20">
+      <c r="F14" s="14">
         <v>6.1801842362457803E-2</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="20">
+        <v>40</v>
+      </c>
+      <c r="D15" s="22">
+        <v>114900</v>
+      </c>
+      <c r="E15" s="14">
         <v>0.93062679336223797</v>
       </c>
-      <c r="F15" s="20">
+      <c r="F15" s="14">
         <v>5.9795234956609503E-2</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="20">
+        <v>41</v>
+      </c>
+      <c r="D16" s="22">
+        <v>159600</v>
+      </c>
+      <c r="E16" s="14">
         <v>0.87600025155041295</v>
       </c>
-      <c r="F16" s="20">
+      <c r="F16" s="14">
         <v>7.3328419232471201E-2</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D17" s="16"/>
-      <c r="E17" s="20">
+        <v>68</v>
+      </c>
+      <c r="D17" s="22">
+        <v>185200</v>
+      </c>
+      <c r="E17" s="14">
         <v>0.84743522443973496</v>
       </c>
-      <c r="F17" s="20">
+      <c r="F17" s="14">
         <v>6.9008691826325394E-2</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="21">
+        <v>42</v>
+      </c>
+      <c r="D18" s="22">
+        <v>80900</v>
+      </c>
+      <c r="E18" s="14">
         <v>0.88378828343901095</v>
       </c>
-      <c r="F18" s="21">
+      <c r="F18" s="14">
         <v>8.2627137639795095E-2</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="E19" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="23" t="s">
+      <c r="F19" s="18" t="s">
         <v>73</v>
-      </c>
-      <c r="E19" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="F19" s="25" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="16"/>
-      <c r="E20" s="21">
+        <v>36</v>
+      </c>
+      <c r="D20" s="22">
+        <v>1345</v>
+      </c>
+      <c r="E20" s="14">
         <v>0.85012420000472699</v>
       </c>
-      <c r="F20" s="21">
+      <c r="F20" s="14">
         <v>6.9615369956342196E-2</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" s="16"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
+        <v>37</v>
+      </c>
+      <c r="D21" s="22">
+        <v>41850</v>
+      </c>
+      <c r="E21" s="14">
+        <v>0.53149497223918096</v>
+      </c>
+      <c r="F21" s="14">
+        <v>5.9603083413124897E-2</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D22" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="F22" s="18" t="s">
         <v>83</v>
-      </c>
-      <c r="E22" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="F22" s="25" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C23" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="D23" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="E23" s="25" t="s">
+      <c r="E23" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="F23" s="18" t="s">
         <v>84</v>
-      </c>
-      <c r="F23" s="25" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D24" s="17"/>
-      <c r="E24" s="22">
+        <v>30</v>
+      </c>
+      <c r="D24" s="25">
+        <v>1060000</v>
+      </c>
+      <c r="E24" s="15">
         <v>0.92774895886003095</v>
       </c>
-      <c r="F24" s="22">
+      <c r="F24" s="15">
         <v>6.2530280592267604E-2</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="9"/>
+      <c r="A25" s="9" t="s">
+        <v>85</v>
+      </c>
       <c r="B25" s="10" t="s">
         <v>9</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D25" s="17"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
+        <v>31</v>
+      </c>
+      <c r="D25" s="25">
+        <v>645000</v>
+      </c>
+      <c r="E25" s="15">
+        <v>0.96954571990558502</v>
+      </c>
+      <c r="F25" s="15">
+        <v>4.3805652162252698E-2</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="9"/>
+      <c r="A26" s="9" t="s">
+        <v>86</v>
+      </c>
       <c r="B26" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D26" s="17"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
+        <v>32</v>
+      </c>
+      <c r="D26" s="25">
+        <v>425000</v>
+      </c>
+      <c r="E26" s="15">
+        <v>0.83894335203821901</v>
+      </c>
+      <c r="F26" s="15">
+        <v>8.5235728156654894E-2</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="9"/>
+      <c r="A27" s="9" t="s">
+        <v>87</v>
+      </c>
       <c r="B27" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D27" s="17"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
+        <v>33</v>
+      </c>
+      <c r="D27" s="25">
+        <v>439500</v>
+      </c>
+      <c r="E27" s="15">
+        <v>0.96118165705866498</v>
+      </c>
+      <c r="F27" s="15">
+        <v>3.6055623845230297E-2</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="9"/>
+      <c r="A28" s="9" t="s">
+        <v>88</v>
+      </c>
       <c r="B28" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D28" s="17"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
+        <v>34</v>
+      </c>
+      <c r="D28" s="25">
+        <v>413000</v>
+      </c>
+      <c r="E28" s="15">
+        <v>0.95320488958022298</v>
+      </c>
+      <c r="F28" s="15">
+        <v>4.8687677886903501E-2</v>
+      </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="9"/>
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="9" t="s">
+        <v>89</v>
+      </c>
       <c r="B29" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D29" s="17"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
+      <c r="D29" s="25">
+        <v>176</v>
+      </c>
+      <c r="E29" s="15">
+        <v>0.89057127832000305</v>
+      </c>
+      <c r="F29" s="15">
+        <v>4.9207196628522201E-2</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="9"/>
+      <c r="A30" s="9" t="s">
+        <v>95</v>
+      </c>
       <c r="B30" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D30" s="17"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
+        <v>90</v>
+      </c>
+      <c r="D30" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="E30" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="F30" s="27" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="9"/>
+      <c r="A31" s="9" t="s">
+        <v>96</v>
+      </c>
       <c r="B31" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D31" s="17"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
+        <v>15</v>
+      </c>
+      <c r="D31" s="25">
+        <v>279</v>
+      </c>
+      <c r="E31" s="15">
+        <v>0.97360540097488302</v>
+      </c>
+      <c r="F31" s="15">
+        <v>3.6526597751429697E-2</v>
+      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="9"/>
+      <c r="A32" s="9" t="s">
+        <v>97</v>
+      </c>
       <c r="B32" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D32" s="17"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
+        <v>23</v>
+      </c>
+      <c r="D32" s="25">
+        <v>303</v>
+      </c>
+      <c r="E32" s="15">
+        <v>0.916304460193758</v>
+      </c>
+      <c r="F32" s="15">
+        <v>6.3877881823624E-2</v>
+      </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="9"/>
+      <c r="A33" s="9" t="s">
+        <v>98</v>
+      </c>
       <c r="B33" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D33" s="17"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
+        <v>24</v>
+      </c>
+      <c r="D33" s="25">
+        <v>458</v>
+      </c>
+      <c r="E33" s="15">
+        <v>0.91890329203438603</v>
+      </c>
+      <c r="F33" s="15">
+        <v>5.8687521084626902E-2</v>
+      </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="12" t="s">
         <v>12</v>
       </c>
       <c r="B34" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="D34" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E34" s="14">
+      <c r="E34" s="24">
         <v>0.92752347417227199</v>
       </c>
-      <c r="F34" s="14">
+      <c r="F34" s="24">
         <v>6.5665529257868796E-2</v>
       </c>
     </row>
@@ -3448,6 +3656,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>